--- a/test/book_sparse.xlsx
+++ b/test/book_sparse.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noronha/.julia/v0.6/XLSX/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35F1AF9D-6B28-2A41-9E06-00AA84201064}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{5E45A593-668B-594D-8DF2-0CBB3D3A0AEF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -370,21 +375,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF95EEB-A3F8-3347-8333-4562EE37F07E}">
-  <dimension ref="A2:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>20</v>
       </c>
@@ -392,7 +397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -404,6 +409,17 @@
       </c>
       <c r="D6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
